--- a/biology/Zoologie/Corbula/Corbula.xlsx
+++ b/biology/Zoologie/Corbula/Corbula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corbula (les corbules en français, du latin corbula, « corbeille, petit panier ») est un genre de mollusques bivalves de la famille des Corbulidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corbula (les corbules en français, du latin corbula, « corbeille, petit panier ») est un genre de mollusques bivalves de la famille des Corbulidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anisocorbula Iredale, 1930
 Apachecorbula P. G. Oliver &amp; Vestheim, 2015
@@ -553,9 +567,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (20 octobre 2019)[2], il y a 54 espèces :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (20 octobre 2019), il y a 54 espèces :
 Corbula barrattiana C. B. Adams, 1852
 Corbula bicarinata Sowerby, 1833
 Corbula caribaea d'Orbigny, 1842
@@ -611,7 +627,7 @@
 Corbula yokoyamai T. Habe, 1949
 Corbula zelandica J. R. C. Quoy &amp; J. P. Gaimard, 1835
 Autres noms
-†Corbula elegans Sowerby J. de C.[3],[4],[5], 1827, un synonyme de †Corbulamella elegans ou de †Caestocorbula elegans.</t>
+†Corbula elegans Sowerby J. de C. 1827, un synonyme de †Corbulamella elegans ou de †Caestocorbula elegans.</t>
         </is>
       </c>
     </row>
